--- a/idea-hub-service/src/main/resources/Seed_Ideas1.xlsx
+++ b/idea-hub-service/src/main/resources/Seed_Ideas1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="135">
   <si>
     <t xml:space="preserve">Title of idea</t>
   </si>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">An android mobile application to visualize room located at a specific location using virtual reality.The  main  idea is  generating  a  3D surround  sound  room  scenery  coupled  in  a  handier  package,  namely,  a  “Virtual  Listen Room"</t>
   </si>
   <si>
-    <t xml:space="preserve">Android Developer, Software Architect,financer</t>
+    <t xml:space="preserve">Android Developer, Software Architect,Financer</t>
   </si>
   <si>
     <t xml:space="preserve">Selin </t>
@@ -232,7 +232,7 @@
     <t xml:space="preserve">A climb to the top of mount fuji and setting up camp for a day</t>
   </si>
   <si>
-    <t xml:space="preserve">Mountaineers, Local guide, Paramedic</t>
+    <t xml:space="preserve">Mountaineers, Local Guide, Paramedic</t>
   </si>
   <si>
     <t xml:space="preserve">Aanya</t>
@@ -268,7 +268,23 @@
     <t xml:space="preserve">A service to provide Tour Guides to preferred Location.</t>
   </si>
   <si>
-    <t xml:space="preserve">Marketing Agent,Financer, Travel agents</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Marketing Agent,Financer, Travel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Agent</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Prerna</t>
@@ -301,13 +317,10 @@
     <t xml:space="preserve">Medical Research Data Storage and Analysis System</t>
   </si>
   <si>
-    <t xml:space="preserve">mobile application</t>
-  </si>
-  <si>
     <t xml:space="preserve">An android mobile application to  collects all computer based Patient Information Centre (PIC) which will receive, contain  and transmit data to hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">android developer,software architect</t>
+    <t xml:space="preserve">Android Developer,Software Architect</t>
   </si>
   <si>
     <t xml:space="preserve">ramya</t>
@@ -322,13 +335,38 @@
     <t xml:space="preserve">Aquarium walk</t>
   </si>
   <si>
-    <t xml:space="preserve">flora and fauna tour</t>
+    <t xml:space="preserve">Flora and Fauna tour</t>
   </si>
   <si>
     <t xml:space="preserve">A long walk through a tunnel under the sea for tourists</t>
   </si>
   <si>
-    <t xml:space="preserve">marketing agent, financer,decorator, architect</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Marketing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Agent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, Financer,Decorator, Architect</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">rahul</t>
@@ -361,13 +399,10 @@
     <t xml:space="preserve">Smart object recognition and wireless surveillance</t>
   </si>
   <si>
-    <t xml:space="preserve">sensor networks</t>
-  </si>
-  <si>
     <t xml:space="preserve">This is an intelligent security system based on image analysis that combines the advantages of alarm, video surveillance and home automation systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">hardware engineer,software engineer</t>
+    <t xml:space="preserve">Hardware Engineer,Software Engineer</t>
   </si>
   <si>
     <t xml:space="preserve">vignesh</t>
@@ -388,7 +423,32 @@
     <t xml:space="preserve">A VR game in which the player gets to make decisions and the story shall proceed depending upon his choices.players showed an increased perceived anxiety both after playing the horror video game in virtual reality and after playing through the console.</t>
   </si>
   <si>
-    <t xml:space="preserve">Game dev, animator, fsd, liasoner, marketing agent</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Game Developer, Animator, Full Stack Developer, Liasoner, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Marketing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Agent</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">arushi</t>
@@ -400,13 +460,10 @@
     <t xml:space="preserve">Speech Recognition and Speech Synthesis System for Linux </t>
   </si>
   <si>
-    <t xml:space="preserve">web application</t>
-  </si>
-  <si>
     <t xml:space="preserve">The project aims to makes to talk to the user about the facilities present in the software in words and recognize their voice utilizing the concepts of Speech Recognition and Speech Synthesis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Software Developer,web Developer</t>
+    <t xml:space="preserve">Software Developer,Web Developer</t>
   </si>
   <si>
     <t xml:space="preserve">arathi</t>
@@ -446,7 +503,7 @@
     <numFmt numFmtId="165" formatCode="#,##0\$"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -473,6 +530,11 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -578,7 +640,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -607,15 +669,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -623,11 +689,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -643,19 +709,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -752,8 +822,8 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -828,7 +898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -844,7 +914,7 @@
       <c r="E3" s="6" t="n">
         <v>2500</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -957,7 +1027,7 @@
       <c r="D7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="8" t="n">
         <v>2500</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -986,7 +1056,7 @@
       <c r="D8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="8" t="n">
         <v>3000</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1003,7 +1073,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1012,10 +1082,10 @@
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="8" t="n">
         <v>3000</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1047,7 +1117,7 @@
       <c r="E10" s="4" t="n">
         <v>3500</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="4" t="s">
         <v>64</v>
       </c>
@@ -1097,7 +1167,7 @@
       <c r="C12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E12" s="4" t="n">
@@ -1117,309 +1187,309 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="16" t="n">
         <v>50000</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="14" t="s">
         <v>90</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
+    <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="E15" s="14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="13" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="G15" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="H15" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="I15" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="13" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
+      <c r="B16" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="D16" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="16" t="n">
+        <v>90000</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="15" t="n">
-        <v>90000</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="C17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="E17" s="14" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="13" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="G17" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="H17" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="I17" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="13" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
+      <c r="B18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="E18" s="16" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="15" t="n">
+      <c r="C19" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="14" t="n">
+        <v>123454321</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="14" t="n">
         <v>20000</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="F20" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="15" t="n">
+      <c r="C21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="14" t="n">
         <v>15000</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I19" s="13" t="n">
-        <v>123454321</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="13" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="s">
+      <c r="G21" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="14" t="s">
+      <c r="H21" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="13" t="n">
-        <v>15000</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="I21" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/idea-hub-service/src/main/resources/Seed_Ideas1.xlsx
+++ b/idea-hub-service/src/main/resources/Seed_Ideas1.xlsx
@@ -10,17 +10,17 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="139">
   <si>
     <t xml:space="preserve">Title of idea</t>
   </si>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">An android mobile application to visualize room located at a specific location using virtual reality.The  main  idea is  generating  a  3D surround  sound  room  scenery  coupled  in  a  handier  package,  namely,  a  “Virtual  Listen Room"</t>
   </si>
   <si>
-    <t xml:space="preserve">Android Developer, Software Architect,Financer</t>
+    <t xml:space="preserve">Android Developer, Software Architect,Financer,CA</t>
   </si>
   <si>
     <t xml:space="preserve">Selin </t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">In this project,the teacher will take the attendance in the mobile after saving the presenters and absentees in the mobile the teacher will edit the list of attendance in the mobile and the details will send to the system by using GPRS. And the list will be updated automatically.</t>
   </si>
   <si>
-    <t xml:space="preserve">Android Developer,Software Developer</t>
+    <t xml:space="preserve">Android Developer,Big Data Developer,Selenium Tester</t>
   </si>
   <si>
     <t xml:space="preserve">Ajith Roy</t>
@@ -121,45 +121,48 @@
     <t xml:space="preserve">Images are often received in defective conditions due to poor scanning and transmitting devices. This project a novel recursive intelligent approach based on cellular neural network (CNN) to denoise an image even in the presence of very high ratio of noise</t>
   </si>
   <si>
+    <t xml:space="preserve">Web Developer,Software Architect,Manual Tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreevidhya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sreevidhya12@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sreeya@17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food doinating Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This product aims at satisfying the requirements of needy organizations through donations over the net. This application shall ask the user/donor to register his/her details into the system and then he/she can login and put up items to donate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android Developer, Software Architect,Cloud Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rithu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rithuysr46@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rituuu@79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garbage collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application to collect the garbage when it is full.A sensor is placed which is used to indicate the garbage when it is full.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Web Developer,Software Architect</t>
   </si>
   <si>
-    <t xml:space="preserve">Sreevidhya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sreevidhya12@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sreeya@17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food doinating Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This product aims at satisfying the requirements of needy organizations through donations over the net. This application shall ask the user/donor to register his/her details into the system and then he/she can login and put up items to donate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android Developer, Software Architect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rithu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rithuysr46@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rituuu@79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garbage collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application to collect the garbage when it is full.A sensor is placed which is used to indicate the garbage when it is full.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Madhuri</t>
   </si>
   <si>
@@ -175,6 +178,9 @@
     <t xml:space="preserve">An android app to keep information about bus timings to reach required destination,bus numbers,bus timings,routes of buses etc.</t>
   </si>
   <si>
+    <t xml:space="preserve">Front End Developer, Software Architect</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manasa</t>
   </si>
   <si>
@@ -214,6 +220,9 @@
     <t xml:space="preserve">Project was to assist the arctic tourism sector, mainly local small- to medium-sized tourism businesses .The project’s goal was to create resources, tools and incentives that can be used by local players in tourism development as well as to create professional training to assist the tourism sector in their respective area.</t>
   </si>
   <si>
+    <t xml:space="preserve">Travel Guide,Marketing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sangeetha</t>
   </si>
   <si>
@@ -232,7 +241,7 @@
     <t xml:space="preserve">A climb to the top of mount fuji and setting up camp for a day</t>
   </si>
   <si>
-    <t xml:space="preserve">Mountaineers, Local Guide, Paramedic</t>
+    <t xml:space="preserve">Mountaineers,Tour guide, Paramedic</t>
   </si>
   <si>
     <t xml:space="preserve">Aanya</t>
@@ -268,23 +277,7 @@
     <t xml:space="preserve">A service to provide Tour Guides to preferred Location.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Marketing Agent,Financer, Travel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Agent</t>
-    </r>
+    <t xml:space="preserve">Marketing Agent,Financer, Travel Agent</t>
   </si>
   <si>
     <t xml:space="preserve">Prerna</t>
@@ -311,13 +304,13 @@
     <t xml:space="preserve">vijeta@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">vijetha234</t>
+    <t xml:space="preserve">vijeta45</t>
   </si>
   <si>
     <t xml:space="preserve">Medical Research Data Storage and Analysis System</t>
   </si>
   <si>
-    <t xml:space="preserve">An android mobile application to  collects all computer based Patient Information Centre (PIC) which will receive, contain  and transmit data to hospital</t>
+    <t xml:space="preserve">An android mobile application to  collects all computer‐based Patient Information Centre (PIC) which will receive, contain  and transmit data to hospital</t>
   </si>
   <si>
     <t xml:space="preserve">Android Developer,Software Architect</t>
@@ -341,32 +334,7 @@
     <t xml:space="preserve">A long walk through a tunnel under the sea for tourists</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Marketing </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Agent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, Financer,Decorator, Architect</t>
-    </r>
+    <t xml:space="preserve">Marketing Agent, Financer,Decorator, Architect,Ticketing Agent</t>
   </si>
   <si>
     <t xml:space="preserve">rahul</t>
@@ -384,7 +352,7 @@
     <t xml:space="preserve">service to provide appropriate hotel booking for the customers</t>
   </si>
   <si>
-    <t xml:space="preserve">Marketing Agent,Financer, Hotel manager</t>
+    <t xml:space="preserve">Marketing Agent,Financer, Hotel Manager,Business Analyst</t>
   </si>
   <si>
     <t xml:space="preserve">jaydev</t>
@@ -399,6 +367,9 @@
     <t xml:space="preserve">Smart object recognition and wireless surveillance</t>
   </si>
   <si>
+    <t xml:space="preserve">Sensor Networks</t>
+  </si>
+  <si>
     <t xml:space="preserve">This is an intelligent security system based on image analysis that combines the advantages of alarm, video surveillance and home automation systems.</t>
   </si>
   <si>
@@ -423,32 +394,7 @@
     <t xml:space="preserve">A VR game in which the player gets to make decisions and the story shall proceed depending upon his choices.players showed an increased perceived anxiety both after playing the horror video game in virtual reality and after playing through the console.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Game Developer, Animator, Full Stack Developer, Liasoner, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Marketing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Agent</t>
-    </r>
+    <t xml:space="preserve">Front End Developer, Animator, FSD, Liasoner, Marketing Agent</t>
   </si>
   <si>
     <t xml:space="preserve">arushi</t>
@@ -491,7 +437,7 @@
     <t xml:space="preserve">sushmashetty34@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">sushma3344</t>
+    <t xml:space="preserve">sushma334@4</t>
   </si>
 </sst>
 </file>
@@ -503,11 +449,12 @@
     <numFmt numFmtId="165" formatCode="#,##0\$"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -527,14 +474,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Cambria"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -544,14 +486,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Roboto"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -565,21 +507,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF1C1D1E"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Q_serif"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
@@ -595,8 +530,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF808080"/>
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -640,7 +575,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -653,10 +588,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -666,34 +597,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -706,27 +633,23 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -738,20 +661,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <name val="Lohit Devanagari"/>
-        <charset val="1"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -801,7 +710,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF999999"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF1C1D1E"/>
@@ -820,27 +729,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="69.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.59"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="47.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="58.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,690 +770,600 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="5" t="n">
         <v>3000</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="5" t="n">
         <v>2500</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="5" t="n">
         <v>3000</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="5" t="n">
         <v>3000</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="5" t="n">
         <v>2500</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="6" t="n">
         <v>2500</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="8" t="n">
+      <c r="D8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="6" t="n">
         <v>3000</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="H8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="I8" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="8" t="n">
+      <c r="D9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="6" t="n">
         <v>3000</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="4" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="C10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="9" t="n">
         <v>3500</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="4" t="n">
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="9" t="n">
         <v>4000</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>4500</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>1234567890</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="D13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="14" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>4500</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="16" t="n">
-        <v>50000</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="C15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="14" t="n">
+        <v>90000</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="16" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C18" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="14" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="16" t="n">
+        <v>123454321</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="16" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="14" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="16" t="n">
-        <v>90000</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="14" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="16" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="16" t="n">
+      <c r="D21" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="16" t="n">
         <v>15000</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" s="14" t="n">
-        <v>123454321</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="14" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="14" t="n">
-        <v>15000</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F21" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(TRIM(C1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(TRIM(E1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(TRIM(F1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(TRIM(G1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(TRIM(H1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(TRIM(I1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(TRIM(D1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/idea-hub-service/src/main/resources/Seed_Ideas1.xlsx
+++ b/idea-hub-service/src/main/resources/Seed_Ideas1.xlsx
@@ -22,28 +22,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="139">
   <si>
-    <t xml:space="preserve">Title of idea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domain of idea</t>
+    <t xml:space="preserve">Title_of_idea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domain_of_idea</t>
   </si>
   <si>
     <t xml:space="preserve">Sub-domain of idea</t>
   </si>
   <si>
-    <t xml:space="preserve">Description of idea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roles required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of innovator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mailID</t>
+    <t xml:space="preserve">Description_of_idea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your _budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roles_required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name_of_innovator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail_ID</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
@@ -449,7 +449,7 @@
     <numFmt numFmtId="165" formatCode="#,##0\$"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -475,6 +475,12 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -541,12 +547,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -575,80 +588,84 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -729,26 +746,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="47.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="58.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="58.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="10" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,587 +795,1923 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="6" t="n">
         <v>3000</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="6" t="n">
         <v>2500</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="6" t="n">
         <v>3000</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="6" t="n">
         <v>3000</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="6" t="n">
         <v>2500</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="7" t="n">
         <v>2500</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="7" t="n">
         <v>3000</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>3000</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="10" t="n">
         <v>3500</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="10" t="n">
         <v>4000</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="9" t="n">
+      <c r="I11" s="10" t="n">
         <v>1234567890</v>
       </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="10" t="n">
         <v>4500</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="15" t="n">
         <v>50000</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="13" t="s">
         <v>88</v>
       </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="13" t="s">
         <v>94</v>
       </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="16" t="n">
+      <c r="E15" s="17" t="n">
         <v>5000</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="13" t="s">
         <v>100</v>
       </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="14" t="n">
+      <c r="E16" s="15" t="n">
         <v>90000</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="13" t="s">
         <v>107</v>
       </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="17" t="n">
         <v>3000</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="13" t="s">
         <v>113</v>
       </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="15" t="n">
         <v>20000</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="13" t="s">
         <v>120</v>
       </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="14" t="n">
+      <c r="E19" s="15" t="n">
         <v>15000</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="I19" s="16" t="n">
+      <c r="I19" s="17" t="n">
         <v>123454321</v>
       </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="16" t="n">
+      <c r="E20" s="17" t="n">
         <v>20000</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="13" t="s">
         <v>132</v>
       </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="16" t="n">
+      <c r="E21" s="17" t="n">
         <v>15000</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="13" t="s">
         <v>138</v>
       </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
     </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047940" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047941" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047942" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047943" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047944" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047945" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047946" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047947" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047948" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047949" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047950" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047951" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047952" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047953" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047954" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047955" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047956" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047957" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047958" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047959" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047960" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047961" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047962" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047963" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047964" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047965" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047966" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047967" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047968" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047969" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047970" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047971" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047972" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047973" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047974" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047975" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047976" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047977" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047978" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047979" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047980" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047981" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047982" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047983" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047984" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047985" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047986" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047987" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047988" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047989" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047990" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047991" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047992" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047993" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047994" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047995" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047996" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047997" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047998" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1047999" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048000" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048001" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048002" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048003" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048004" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048005" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048006" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048007" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048008" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048009" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048010" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048011" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048012" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048013" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048014" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048015" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048016" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048017" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048018" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048019" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048020" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048021" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048022" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048023" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048024" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048025" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048026" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048027" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048028" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048029" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048030" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048031" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048032" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048033" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048034" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048035" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048036" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048037" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048038" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048039" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048040" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048041" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048042" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048043" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048044" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048045" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048046" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048047" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048048" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048049" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048050" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048051" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048052" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048053" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048054" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048055" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048056" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048057" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048058" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048059" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048060" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048061" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048062" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048063" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048064" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048065" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048066" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048067" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048068" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048069" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048070" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048071" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048072" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048073" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048074" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048075" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048076" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048077" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048078" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048079" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048080" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048081" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048082" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048083" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048084" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048085" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048086" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048087" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048088" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048089" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048090" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048091" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048092" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048093" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048094" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048095" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048096" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048097" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048098" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048099" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048100" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048101" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048102" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048103" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048104" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048105" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048106" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048107" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048108" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048109" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048110" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048111" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048112" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048113" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048114" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048115" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048116" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048117" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048118" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048119" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048120" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048121" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048122" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048123" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048124" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048125" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048126" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048127" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048128" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048129" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048130" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048131" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048132" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048133" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048134" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048135" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048136" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048137" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048138" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048139" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048141" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048142" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048143" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048144" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048145" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048146" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048147" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048148" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048149" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048150" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048151" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048152" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048153" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048154" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048155" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048156" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048157" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048159" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048160" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048161" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048162" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048163" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048164" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048165" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048166" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048167" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048168" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048169" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048170" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048171" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048172" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048173" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048174" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048175" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048176" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048177" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048178" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048179" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048180" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048181" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048182" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048183" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048184" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048185" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048186" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048187" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048188" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048189" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048190" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048191" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048192" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048193" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048194" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048195" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048196" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048197" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048198" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048199" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048200" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048201" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048202" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048203" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048204" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048205" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048206" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048207" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048208" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048209" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048210" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048211" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048212" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048213" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048214" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048215" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048216" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048217" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048218" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048219" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048220" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048221" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048222" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048223" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048224" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048225" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048226" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048227" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048228" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048229" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048230" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048231" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048232" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048233" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048234" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048235" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048236" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048237" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048238" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048239" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048240" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048241" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048242" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048243" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048244" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048245" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048246" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048247" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048248" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048249" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048250" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048251" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048252" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048253" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048254" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048255" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048256" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048257" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048258" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048259" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048260" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048261" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048262" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048263" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048264" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048265" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048266" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048267" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048268" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048269" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048270" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048271" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048272" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048273" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048274" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048275" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048276" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048277" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048278" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048279" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048280" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048281" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048282" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048283" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048284" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048285" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048286" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048287" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048288" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048289" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048290" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048291" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048292" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048293" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048294" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048295" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048297" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048298" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048299" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048300" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048301" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048302" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048303" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048304" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048305" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048306" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048307" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048308" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048309" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048310" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048311" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048312" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048313" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048314" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048315" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048316" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048317" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048318" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048319" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048320" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
